--- a/ha-asset/01_design/01_dashboard/設計書_1.5.カロリー計算機能.xlsx
+++ b/ha-asset/01_design/01_dashboard/設計書_1.5.カロリー計算機能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\01_dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5D6070-4987-40F9-9613-3CF49F4DF1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0B0243-950D-43F0-A306-427FA5B6FAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="690" windowWidth="21555" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.カロリー計算画面'!$A$1:$BK$97</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -389,7 +381,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +404,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF67C52F"/>
         <bgColor rgb="FF67C52F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -621,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -758,9 +756,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -779,47 +774,75 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,14 +1205,14 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1243,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1249,698 +1272,698 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="72" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="69"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="67"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="4"/>
-      <c r="B4" s="70">
+      <c r="B4" s="80">
         <v>43784</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="67" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="69"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="82"/>
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="33" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="70">
+      <c r="B5" s="80">
         <v>43869</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="71" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="84" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="69"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="82"/>
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="33" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="70">
+      <c r="B6" s="80">
         <v>43960</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="67">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="84">
         <v>1.02</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="84" t="s">
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="69"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="82"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="69"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="82"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="69"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="82"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="69"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="69"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="82"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="69"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="82"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="69"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="69"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="82"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="69"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="69"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="82"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="69"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="69"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="69"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="82"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="69"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="69"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="82"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="69"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="82"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="4"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="69"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="82"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="4"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="69"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="82"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="4"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="69"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="82"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="16.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1969,7 +1992,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2000,18 +2023,42 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="J7:Z7"/>
     <mergeCell ref="J19:Z19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
@@ -2020,55 +2067,31 @@
     <mergeCell ref="J23:Z23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
     <mergeCell ref="J15:Z15"/>
     <mergeCell ref="J16:Z16"/>
     <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3691,14 +3714,16 @@
   </sheetPr>
   <dimension ref="A1:BK97"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85:AG89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3765,7 +3790,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3830,7 +3855,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -3897,7 +3922,7 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3962,7 +3987,7 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4027,7 +4052,7 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4092,7 +4117,7 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4157,7 +4182,7 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4222,7 +4247,7 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4287,7 +4312,7 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4352,7 +4377,7 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4417,7 +4442,7 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4482,7 +4507,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4547,7 +4572,7 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4612,7 +4637,7 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4677,7 +4702,7 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4742,7 +4767,7 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:63" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4807,7 +4832,7 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:63" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4872,7 +4897,7 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:63" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4937,7 +4962,7 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5002,7 +5027,7 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:63" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5067,7 +5092,7 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5132,7 +5157,7 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5197,7 +5222,7 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:63" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5262,7 +5287,7 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:63" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5327,7 +5352,7 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:63" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5392,7 +5417,7 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:63" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5457,7 +5482,7 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:63" ht="16.5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5522,7 +5547,7 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:63" ht="16.5">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5587,7 +5612,7 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:63" ht="16.5">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5652,7 +5677,7 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:63" ht="16.5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5717,7 +5742,7 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" ht="16.5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5782,7 +5807,7 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5847,7 +5872,7 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:63" ht="16.5">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5914,7 +5939,7 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:63" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5979,7 +6004,7 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
-    <row r="36" spans="1:63">
+    <row r="36" spans="1:63" ht="16.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6044,7 +6069,7 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
-    <row r="37" spans="1:63">
+    <row r="37" spans="1:63" ht="16.5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6109,7 +6134,7 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
     </row>
-    <row r="38" spans="1:63">
+    <row r="38" spans="1:63" ht="16.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6174,7 +6199,7 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:63" ht="16.5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6239,7 +6264,7 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
     </row>
-    <row r="40" spans="1:63">
+    <row r="40" spans="1:63" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6304,7 +6329,7 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
     </row>
-    <row r="41" spans="1:63">
+    <row r="41" spans="1:63" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6369,7 +6394,7 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
     </row>
-    <row r="42" spans="1:63">
+    <row r="42" spans="1:63" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6434,7 +6459,7 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
     </row>
-    <row r="43" spans="1:63">
+    <row r="43" spans="1:63" ht="16.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6499,7 +6524,7 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
     </row>
-    <row r="44" spans="1:63">
+    <row r="44" spans="1:63" ht="16.5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6564,7 +6589,7 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" ht="16.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6629,7 +6654,7 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:63" ht="16.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6694,7 +6719,7 @@
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
     </row>
-    <row r="47" spans="1:63">
+    <row r="47" spans="1:63" ht="16.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6759,7 +6784,7 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
     </row>
-    <row r="48" spans="1:63">
+    <row r="48" spans="1:63" ht="16.5">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
         <v>13</v>
@@ -6826,7 +6851,7 @@
       <c r="BJ48" s="3"/>
       <c r="BK48" s="3"/>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:63" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6891,7 +6916,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="3"/>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:63" ht="16.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6956,7 +6981,7 @@
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:63" ht="16.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7021,7 +7046,7 @@
       <c r="BJ51" s="3"/>
       <c r="BK51" s="3"/>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:63" ht="16.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7086,7 +7111,7 @@
       <c r="BJ52" s="3"/>
       <c r="BK52" s="3"/>
     </row>
-    <row r="53" spans="1:63">
+    <row r="53" spans="1:63" ht="16.5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7151,7 +7176,7 @@
       <c r="BJ53" s="3"/>
       <c r="BK53" s="3"/>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:63" ht="16.5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7216,7 +7241,7 @@
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
     </row>
-    <row r="55" spans="1:63">
+    <row r="55" spans="1:63" ht="16.5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7281,7 +7306,7 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
     </row>
-    <row r="56" spans="1:63">
+    <row r="56" spans="1:63" ht="16.5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7346,7 +7371,7 @@
       <c r="BJ56" s="3"/>
       <c r="BK56" s="3"/>
     </row>
-    <row r="57" spans="1:63">
+    <row r="57" spans="1:63" ht="16.5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7411,7 +7436,7 @@
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
     </row>
-    <row r="58" spans="1:63">
+    <row r="58" spans="1:63" ht="16.5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -7476,7 +7501,7 @@
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
     </row>
-    <row r="59" spans="1:63">
+    <row r="59" spans="1:63" ht="16.5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -7541,7 +7566,7 @@
       <c r="BJ59" s="3"/>
       <c r="BK59" s="3"/>
     </row>
-    <row r="60" spans="1:63">
+    <row r="60" spans="1:63" ht="16.5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -7606,7 +7631,7 @@
       <c r="BJ60" s="3"/>
       <c r="BK60" s="3"/>
     </row>
-    <row r="61" spans="1:63">
+    <row r="61" spans="1:63" ht="16.5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7671,7 +7696,7 @@
       <c r="BJ61" s="3"/>
       <c r="BK61" s="3"/>
     </row>
-    <row r="62" spans="1:63">
+    <row r="62" spans="1:63" ht="16.5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7736,7 +7761,7 @@
       <c r="BJ62" s="3"/>
       <c r="BK62" s="3"/>
     </row>
-    <row r="63" spans="1:63">
+    <row r="63" spans="1:63" ht="16.5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7801,7 +7826,7 @@
       <c r="BJ63" s="3"/>
       <c r="BK63" s="3"/>
     </row>
-    <row r="64" spans="1:63">
+    <row r="64" spans="1:63" ht="16.5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7866,7 +7891,7 @@
       <c r="BJ64" s="3"/>
       <c r="BK64" s="3"/>
     </row>
-    <row r="65" spans="1:63">
+    <row r="65" spans="1:63" ht="16.5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7998,7 +8023,7 @@
       <c r="BJ66" s="10"/>
       <c r="BK66" s="10"/>
     </row>
-    <row r="67" spans="1:63">
+    <row r="67" spans="1:63" ht="16.5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8063,7 +8088,7 @@
       <c r="BJ67" s="3"/>
       <c r="BK67" s="3"/>
     </row>
-    <row r="68" spans="1:63" outlineLevel="1">
+    <row r="68" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
         <v>15</v>
@@ -8142,10 +8167,10 @@
       <c r="BJ68" s="20"/>
       <c r="BK68" s="20"/>
     </row>
-    <row r="69" spans="1:63" outlineLevel="1">
+    <row r="69" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A69" s="11"/>
       <c r="B69" s="21">
-        <f t="shared" ref="B69:B75" si="0">ROW()-68</f>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
       <c r="C69" s="22" t="s">
@@ -8159,33 +8184,33 @@
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="77" t="s">
+      <c r="L69" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M69" s="68"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="77" t="s">
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S69" s="68"/>
-      <c r="T69" s="68"/>
-      <c r="U69" s="68"/>
-      <c r="V69" s="68"/>
-      <c r="W69" s="69"/>
+      <c r="S69" s="66"/>
+      <c r="T69" s="66"/>
+      <c r="U69" s="66"/>
+      <c r="V69" s="66"/>
+      <c r="W69" s="67"/>
       <c r="X69" s="22"/>
       <c r="Y69" s="23"/>
       <c r="Z69" s="23"/>
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
       <c r="AC69" s="26"/>
-      <c r="AD69" s="78" t="s">
+      <c r="AD69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AE69" s="74"/>
-      <c r="AF69" s="75"/>
+      <c r="AE69" s="70"/>
+      <c r="AF69" s="71"/>
       <c r="AG69" s="25"/>
       <c r="AH69" s="25"/>
       <c r="AI69" s="25"/>
@@ -8218,10 +8243,10 @@
       <c r="BJ69" s="20"/>
       <c r="BK69" s="20"/>
     </row>
-    <row r="70" spans="1:63" outlineLevel="1">
+    <row r="70" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A70" s="11"/>
       <c r="B70" s="21">
-        <f t="shared" si="0"/>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -8235,31 +8260,31 @@
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="24"/>
-      <c r="L70" s="77" t="s">
+      <c r="L70" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="M70" s="68"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="69"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="68"/>
-      <c r="V70" s="68"/>
-      <c r="W70" s="69"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="66"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="67"/>
       <c r="X70" s="22"/>
       <c r="Y70" s="23"/>
       <c r="Z70" s="23"/>
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
       <c r="AC70" s="26"/>
-      <c r="AD70" s="78" t="s">
+      <c r="AD70" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AE70" s="74"/>
-      <c r="AF70" s="75"/>
+      <c r="AE70" s="70"/>
+      <c r="AF70" s="71"/>
       <c r="AG70" s="25"/>
       <c r="AH70" s="25"/>
       <c r="AI70" s="25"/>
@@ -8292,10 +8317,10 @@
       <c r="BJ70" s="20"/>
       <c r="BK70" s="20"/>
     </row>
-    <row r="71" spans="1:63" outlineLevel="1">
+    <row r="71" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A71" s="11"/>
       <c r="B71" s="21">
-        <f t="shared" si="0"/>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
       <c r="C71" s="22" t="s">
@@ -8309,33 +8334,33 @@
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
       <c r="K71" s="24"/>
-      <c r="L71" s="77" t="s">
+      <c r="L71" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="69"/>
-      <c r="R71" s="77" t="s">
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="S71" s="68"/>
-      <c r="T71" s="68"/>
-      <c r="U71" s="68"/>
-      <c r="V71" s="68"/>
-      <c r="W71" s="69"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="67"/>
       <c r="X71" s="23"/>
       <c r="Y71" s="23"/>
       <c r="Z71" s="23"/>
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="26"/>
-      <c r="AD71" s="78" t="s">
+      <c r="AD71" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AE71" s="74"/>
-      <c r="AF71" s="75"/>
+      <c r="AE71" s="70"/>
+      <c r="AF71" s="71"/>
       <c r="AG71" s="25"/>
       <c r="AH71" s="25"/>
       <c r="AI71" s="25"/>
@@ -8368,10 +8393,10 @@
       <c r="BJ71" s="20"/>
       <c r="BK71" s="20"/>
     </row>
-    <row r="72" spans="1:63" outlineLevel="1">
+    <row r="72" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A72" s="11"/>
       <c r="B72" s="21">
-        <f t="shared" si="0"/>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
       <c r="C72" s="22" t="s">
@@ -8385,33 +8410,33 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
       <c r="K72" s="24"/>
-      <c r="L72" s="77" t="s">
+      <c r="L72" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" s="68"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="68"/>
-      <c r="P72" s="68"/>
-      <c r="Q72" s="69"/>
-      <c r="R72" s="77" t="s">
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="66"/>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="S72" s="68"/>
-      <c r="T72" s="68"/>
-      <c r="U72" s="68"/>
-      <c r="V72" s="68"/>
-      <c r="W72" s="69"/>
+      <c r="S72" s="66"/>
+      <c r="T72" s="66"/>
+      <c r="U72" s="66"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="67"/>
       <c r="X72" s="23"/>
       <c r="Y72" s="23"/>
       <c r="Z72" s="23"/>
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="26"/>
-      <c r="AD72" s="78" t="s">
+      <c r="AD72" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AE72" s="74"/>
-      <c r="AF72" s="75"/>
+      <c r="AE72" s="70"/>
+      <c r="AF72" s="71"/>
       <c r="AG72" s="25"/>
       <c r="AH72" s="25"/>
       <c r="AI72" s="25"/>
@@ -8444,10 +8469,10 @@
       <c r="BJ72" s="20"/>
       <c r="BK72" s="20"/>
     </row>
-    <row r="73" spans="1:63" outlineLevel="1">
+    <row r="73" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A73" s="11"/>
       <c r="B73" s="21">
-        <f t="shared" si="0"/>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
       <c r="C73" s="27" t="s">
@@ -8461,33 +8486,33 @@
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
       <c r="K73" s="29"/>
-      <c r="L73" s="77" t="s">
+      <c r="L73" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M73" s="68"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="69"/>
-      <c r="R73" s="77" t="s">
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="S73" s="68"/>
-      <c r="T73" s="68"/>
-      <c r="U73" s="68"/>
-      <c r="V73" s="68"/>
-      <c r="W73" s="69"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="67"/>
       <c r="X73" s="28"/>
       <c r="Y73" s="28"/>
       <c r="Z73" s="28"/>
       <c r="AA73" s="30"/>
       <c r="AB73" s="30"/>
       <c r="AC73" s="31"/>
-      <c r="AD73" s="78" t="s">
+      <c r="AD73" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AE73" s="74"/>
-      <c r="AF73" s="75"/>
+      <c r="AE73" s="70"/>
+      <c r="AF73" s="71"/>
       <c r="AG73" s="30"/>
       <c r="AH73" s="30"/>
       <c r="AI73" s="30"/>
@@ -8520,10 +8545,10 @@
       <c r="BJ73" s="20"/>
       <c r="BK73" s="20"/>
     </row>
-    <row r="74" spans="1:63" outlineLevel="1">
+    <row r="74" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A74" s="11"/>
       <c r="B74" s="21">
-        <f t="shared" si="0"/>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
       <c r="C74" s="22" t="s">
@@ -8537,29 +8562,29 @@
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
       <c r="K74" s="24"/>
-      <c r="L74" s="77" t="s">
+      <c r="L74" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="69"/>
-      <c r="R74" s="77"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="69"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="67"/>
       <c r="X74" s="23"/>
       <c r="Y74" s="23"/>
       <c r="Z74" s="23"/>
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="26"/>
-      <c r="AD74" s="78"/>
-      <c r="AE74" s="74"/>
-      <c r="AF74" s="75"/>
+      <c r="AD74" s="69"/>
+      <c r="AE74" s="70"/>
+      <c r="AF74" s="71"/>
       <c r="AG74" s="25"/>
       <c r="AH74" s="25"/>
       <c r="AI74" s="25"/>
@@ -8592,10 +8617,10 @@
       <c r="BJ74" s="20"/>
       <c r="BK74" s="20"/>
     </row>
-    <row r="75" spans="1:63" outlineLevel="1">
+    <row r="75" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A75" s="11"/>
       <c r="B75" s="21">
-        <f t="shared" si="0"/>
+        <f ca="1">MAX(B$68:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
       <c r="C75" s="22" t="s">
@@ -8609,29 +8634,29 @@
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
       <c r="K75" s="24"/>
-      <c r="L75" s="77" t="s">
+      <c r="L75" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M75" s="68"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="69"/>
-      <c r="R75" s="77"/>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="68"/>
-      <c r="V75" s="68"/>
-      <c r="W75" s="69"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="67"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="66"/>
+      <c r="W75" s="67"/>
       <c r="X75" s="23"/>
       <c r="Y75" s="23"/>
       <c r="Z75" s="23"/>
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
       <c r="AC75" s="26"/>
-      <c r="AD75" s="78"/>
-      <c r="AE75" s="74"/>
-      <c r="AF75" s="75"/>
+      <c r="AD75" s="69"/>
+      <c r="AE75" s="70"/>
+      <c r="AF75" s="71"/>
       <c r="AG75" s="25"/>
       <c r="AH75" s="25"/>
       <c r="AI75" s="25"/>
@@ -8664,7 +8689,7 @@
       <c r="BJ75" s="20"/>
       <c r="BK75" s="20"/>
     </row>
-    <row r="76" spans="1:63">
+    <row r="76" spans="1:63" ht="16.5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8796,7 +8821,7 @@
       <c r="BJ77" s="10"/>
       <c r="BK77" s="10"/>
     </row>
-    <row r="78" spans="1:63">
+    <row r="78" spans="1:63" ht="16.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8938,10 +8963,10 @@
       <c r="BJ79" s="48"/>
       <c r="BK79" s="48"/>
     </row>
-    <row r="80" spans="1:63" outlineLevel="1">
+    <row r="80" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A80" s="49"/>
       <c r="B80" s="21">
-        <f t="shared" ref="B80:B90" si="1">ROW()-79</f>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
       <c r="C80" s="50" t="s">
@@ -9016,10 +9041,10 @@
       <c r="BJ80" s="20"/>
       <c r="BK80" s="20"/>
     </row>
-    <row r="81" spans="1:63" outlineLevel="1">
+    <row r="81" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A81" s="49"/>
       <c r="B81" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
       <c r="C81" s="54" t="s">
@@ -9072,21 +9097,21 @@
       <c r="AP81" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AQ81" s="74"/>
-      <c r="AR81" s="74"/>
-      <c r="AS81" s="74"/>
-      <c r="AT81" s="74"/>
-      <c r="AU81" s="74"/>
-      <c r="AV81" s="74"/>
-      <c r="AW81" s="74"/>
-      <c r="AX81" s="74"/>
-      <c r="AY81" s="74"/>
-      <c r="AZ81" s="74"/>
-      <c r="BA81" s="74"/>
-      <c r="BB81" s="74"/>
-      <c r="BC81" s="74"/>
-      <c r="BD81" s="74"/>
-      <c r="BE81" s="75"/>
+      <c r="AQ81" s="70"/>
+      <c r="AR81" s="70"/>
+      <c r="AS81" s="70"/>
+      <c r="AT81" s="70"/>
+      <c r="AU81" s="70"/>
+      <c r="AV81" s="70"/>
+      <c r="AW81" s="70"/>
+      <c r="AX81" s="70"/>
+      <c r="AY81" s="70"/>
+      <c r="AZ81" s="70"/>
+      <c r="BA81" s="70"/>
+      <c r="BB81" s="70"/>
+      <c r="BC81" s="70"/>
+      <c r="BD81" s="70"/>
+      <c r="BE81" s="71"/>
       <c r="BF81" s="20"/>
       <c r="BG81" s="20"/>
       <c r="BH81" s="20"/>
@@ -9094,10 +9119,10 @@
       <c r="BJ81" s="20"/>
       <c r="BK81" s="20"/>
     </row>
-    <row r="82" spans="1:63" outlineLevel="1">
+    <row r="82" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A82" s="49"/>
       <c r="B82" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
       <c r="C82" s="57"/>
@@ -9141,24 +9166,24 @@
       <c r="AM82" s="23"/>
       <c r="AN82" s="23"/>
       <c r="AO82" s="24"/>
-      <c r="AP82" s="76" t="s">
+      <c r="AP82" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="AQ82" s="74"/>
-      <c r="AR82" s="74"/>
-      <c r="AS82" s="74"/>
-      <c r="AT82" s="74"/>
-      <c r="AU82" s="74"/>
-      <c r="AV82" s="74"/>
-      <c r="AW82" s="74"/>
-      <c r="AX82" s="74"/>
-      <c r="AY82" s="74"/>
-      <c r="AZ82" s="74"/>
-      <c r="BA82" s="74"/>
-      <c r="BB82" s="74"/>
-      <c r="BC82" s="74"/>
-      <c r="BD82" s="74"/>
-      <c r="BE82" s="75"/>
+      <c r="AQ82" s="70"/>
+      <c r="AR82" s="70"/>
+      <c r="AS82" s="70"/>
+      <c r="AT82" s="70"/>
+      <c r="AU82" s="70"/>
+      <c r="AV82" s="70"/>
+      <c r="AW82" s="70"/>
+      <c r="AX82" s="70"/>
+      <c r="AY82" s="70"/>
+      <c r="AZ82" s="70"/>
+      <c r="BA82" s="70"/>
+      <c r="BB82" s="70"/>
+      <c r="BC82" s="70"/>
+      <c r="BD82" s="70"/>
+      <c r="BE82" s="71"/>
       <c r="BF82" s="20"/>
       <c r="BG82" s="20"/>
       <c r="BH82" s="20"/>
@@ -9166,10 +9191,10 @@
       <c r="BJ82" s="20"/>
       <c r="BK82" s="20"/>
     </row>
-    <row r="83" spans="1:63" outlineLevel="1">
+    <row r="83" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A83" s="49"/>
       <c r="B83" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
       <c r="C83" s="57"/>
@@ -9216,21 +9241,21 @@
       <c r="AP83" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AQ83" s="74"/>
-      <c r="AR83" s="74"/>
-      <c r="AS83" s="74"/>
-      <c r="AT83" s="74"/>
-      <c r="AU83" s="74"/>
-      <c r="AV83" s="74"/>
-      <c r="AW83" s="74"/>
-      <c r="AX83" s="74"/>
-      <c r="AY83" s="74"/>
-      <c r="AZ83" s="74"/>
-      <c r="BA83" s="74"/>
-      <c r="BB83" s="74"/>
-      <c r="BC83" s="74"/>
-      <c r="BD83" s="74"/>
-      <c r="BE83" s="75"/>
+      <c r="AQ83" s="70"/>
+      <c r="AR83" s="70"/>
+      <c r="AS83" s="70"/>
+      <c r="AT83" s="70"/>
+      <c r="AU83" s="70"/>
+      <c r="AV83" s="70"/>
+      <c r="AW83" s="70"/>
+      <c r="AX83" s="70"/>
+      <c r="AY83" s="70"/>
+      <c r="AZ83" s="70"/>
+      <c r="BA83" s="70"/>
+      <c r="BB83" s="70"/>
+      <c r="BC83" s="70"/>
+      <c r="BD83" s="70"/>
+      <c r="BE83" s="71"/>
       <c r="BF83" s="20"/>
       <c r="BG83" s="20"/>
       <c r="BH83" s="20"/>
@@ -9238,10 +9263,10 @@
       <c r="BJ83" s="20"/>
       <c r="BK83" s="20"/>
     </row>
-    <row r="84" spans="1:63" outlineLevel="1">
+    <row r="84" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A84" s="49"/>
       <c r="B84" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
       <c r="C84" s="59"/>
@@ -9288,21 +9313,21 @@
       <c r="AP84" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="AQ84" s="74"/>
-      <c r="AR84" s="74"/>
-      <c r="AS84" s="74"/>
-      <c r="AT84" s="74"/>
-      <c r="AU84" s="74"/>
-      <c r="AV84" s="74"/>
-      <c r="AW84" s="74"/>
-      <c r="AX84" s="74"/>
-      <c r="AY84" s="74"/>
-      <c r="AZ84" s="74"/>
-      <c r="BA84" s="74"/>
-      <c r="BB84" s="74"/>
-      <c r="BC84" s="74"/>
-      <c r="BD84" s="74"/>
-      <c r="BE84" s="75"/>
+      <c r="AQ84" s="70"/>
+      <c r="AR84" s="70"/>
+      <c r="AS84" s="70"/>
+      <c r="AT84" s="70"/>
+      <c r="AU84" s="70"/>
+      <c r="AV84" s="70"/>
+      <c r="AW84" s="70"/>
+      <c r="AX84" s="70"/>
+      <c r="AY84" s="70"/>
+      <c r="AZ84" s="70"/>
+      <c r="BA84" s="70"/>
+      <c r="BB84" s="70"/>
+      <c r="BC84" s="70"/>
+      <c r="BD84" s="70"/>
+      <c r="BE84" s="71"/>
       <c r="BF84" s="20"/>
       <c r="BG84" s="20"/>
       <c r="BH84" s="20"/>
@@ -9310,10 +9335,10 @@
       <c r="BJ84" s="20"/>
       <c r="BK84" s="20"/>
     </row>
-    <row r="85" spans="1:63" outlineLevel="1">
+    <row r="85" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A85" s="49"/>
       <c r="B85" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
       <c r="C85" s="59"/>
@@ -9323,34 +9348,34 @@
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
       <c r="I85" s="49"/>
-      <c r="J85" s="58" t="s">
+      <c r="J85" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="58" t="s">
+      <c r="K85" s="86"/>
+      <c r="L85" s="86"/>
+      <c r="M85" s="86"/>
+      <c r="N85" s="86"/>
+      <c r="O85" s="86"/>
+      <c r="P85" s="86"/>
+      <c r="Q85" s="87"/>
+      <c r="R85" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="23"/>
-      <c r="Z85" s="23"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="23"/>
-      <c r="AD85" s="23"/>
-      <c r="AE85" s="23"/>
-      <c r="AF85" s="23"/>
-      <c r="AG85" s="23"/>
+      <c r="S85" s="88"/>
+      <c r="T85" s="88"/>
+      <c r="U85" s="88"/>
+      <c r="V85" s="88"/>
+      <c r="W85" s="88"/>
+      <c r="X85" s="88"/>
+      <c r="Y85" s="88"/>
+      <c r="Z85" s="88"/>
+      <c r="AA85" s="88"/>
+      <c r="AB85" s="88"/>
+      <c r="AC85" s="88"/>
+      <c r="AD85" s="88"/>
+      <c r="AE85" s="88"/>
+      <c r="AF85" s="88"/>
+      <c r="AG85" s="88"/>
       <c r="AH85" s="52" t="s">
         <v>61</v>
       </c>
@@ -9386,10 +9411,10 @@
       <c r="BJ85" s="20"/>
       <c r="BK85" s="20"/>
     </row>
-    <row r="86" spans="1:63" outlineLevel="1">
+    <row r="86" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A86" s="49"/>
       <c r="B86" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
       <c r="C86" s="59"/>
@@ -9399,32 +9424,32 @@
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
       <c r="I86" s="57"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="76" t="s">
+      <c r="J86" s="89"/>
+      <c r="K86" s="86"/>
+      <c r="L86" s="86"/>
+      <c r="M86" s="86"/>
+      <c r="N86" s="86"/>
+      <c r="O86" s="86"/>
+      <c r="P86" s="86"/>
+      <c r="Q86" s="87"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="T86" s="74"/>
-      <c r="U86" s="74"/>
-      <c r="V86" s="74"/>
-      <c r="W86" s="74"/>
-      <c r="X86" s="74"/>
-      <c r="Y86" s="74"/>
-      <c r="Z86" s="74"/>
-      <c r="AA86" s="74"/>
-      <c r="AB86" s="74"/>
-      <c r="AC86" s="74"/>
-      <c r="AD86" s="74"/>
-      <c r="AE86" s="74"/>
-      <c r="AF86" s="74"/>
-      <c r="AG86" s="74"/>
+      <c r="T86" s="91"/>
+      <c r="U86" s="91"/>
+      <c r="V86" s="91"/>
+      <c r="W86" s="91"/>
+      <c r="X86" s="91"/>
+      <c r="Y86" s="91"/>
+      <c r="Z86" s="91"/>
+      <c r="AA86" s="91"/>
+      <c r="AB86" s="91"/>
+      <c r="AC86" s="91"/>
+      <c r="AD86" s="91"/>
+      <c r="AE86" s="91"/>
+      <c r="AF86" s="91"/>
+      <c r="AG86" s="91"/>
       <c r="AH86" s="52" t="s">
         <v>61</v>
       </c>
@@ -9460,10 +9485,10 @@
       <c r="BJ86" s="20"/>
       <c r="BK86" s="20"/>
     </row>
-    <row r="87" spans="1:63" outlineLevel="1">
+    <row r="87" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A87" s="49"/>
       <c r="B87" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
       <c r="C87" s="59"/>
@@ -9473,32 +9498,32 @@
       <c r="G87" s="57"/>
       <c r="H87" s="57"/>
       <c r="I87" s="57"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="57"/>
-      <c r="M87" s="57"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="49"/>
-      <c r="R87" s="58" t="s">
+      <c r="J87" s="89"/>
+      <c r="K87" s="86"/>
+      <c r="L87" s="86"/>
+      <c r="M87" s="86"/>
+      <c r="N87" s="86"/>
+      <c r="O87" s="86"/>
+      <c r="P87" s="86"/>
+      <c r="Q87" s="87"/>
+      <c r="R87" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="S87" s="23"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="23"/>
-      <c r="V87" s="23"/>
-      <c r="W87" s="23"/>
-      <c r="X87" s="23"/>
-      <c r="Y87" s="23"/>
-      <c r="Z87" s="23"/>
-      <c r="AA87" s="23"/>
-      <c r="AB87" s="23"/>
-      <c r="AC87" s="23"/>
-      <c r="AD87" s="23"/>
-      <c r="AE87" s="23"/>
-      <c r="AF87" s="23"/>
-      <c r="AG87" s="23"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="88"/>
+      <c r="U87" s="88"/>
+      <c r="V87" s="88"/>
+      <c r="W87" s="88"/>
+      <c r="X87" s="88"/>
+      <c r="Y87" s="88"/>
+      <c r="Z87" s="88"/>
+      <c r="AA87" s="88"/>
+      <c r="AB87" s="88"/>
+      <c r="AC87" s="88"/>
+      <c r="AD87" s="88"/>
+      <c r="AE87" s="88"/>
+      <c r="AF87" s="88"/>
+      <c r="AG87" s="88"/>
       <c r="AH87" s="52" t="s">
         <v>61</v>
       </c>
@@ -9534,10 +9559,10 @@
       <c r="BJ87" s="20"/>
       <c r="BK87" s="20"/>
     </row>
-    <row r="88" spans="1:63" outlineLevel="1">
+    <row r="88" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A88" s="49"/>
       <c r="B88" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
       <c r="C88" s="59"/>
@@ -9547,32 +9572,32 @@
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
       <c r="I88" s="57"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="76" t="s">
+      <c r="J88" s="92"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="88"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="T88" s="74"/>
-      <c r="U88" s="74"/>
-      <c r="V88" s="74"/>
-      <c r="W88" s="74"/>
-      <c r="X88" s="74"/>
-      <c r="Y88" s="74"/>
-      <c r="Z88" s="74"/>
-      <c r="AA88" s="74"/>
-      <c r="AB88" s="74"/>
-      <c r="AC88" s="74"/>
-      <c r="AD88" s="74"/>
-      <c r="AE88" s="74"/>
-      <c r="AF88" s="74"/>
-      <c r="AG88" s="74"/>
+      <c r="T88" s="91"/>
+      <c r="U88" s="91"/>
+      <c r="V88" s="91"/>
+      <c r="W88" s="91"/>
+      <c r="X88" s="91"/>
+      <c r="Y88" s="91"/>
+      <c r="Z88" s="91"/>
+      <c r="AA88" s="91"/>
+      <c r="AB88" s="91"/>
+      <c r="AC88" s="91"/>
+      <c r="AD88" s="91"/>
+      <c r="AE88" s="91"/>
+      <c r="AF88" s="91"/>
+      <c r="AG88" s="91"/>
       <c r="AH88" s="52" t="s">
         <v>61</v>
       </c>
@@ -9608,47 +9633,47 @@
       <c r="BJ88" s="20"/>
       <c r="BK88" s="20"/>
     </row>
-    <row r="89" spans="1:63" outlineLevel="1">
+    <row r="89" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A89" s="49"/>
       <c r="B89" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C89" s="61"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
       <c r="H89" s="23"/>
       <c r="I89" s="24"/>
-      <c r="J89" s="22" t="s">
+      <c r="J89" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="22" t="s">
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="S89" s="23"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="23"/>
-      <c r="W89" s="23"/>
-      <c r="X89" s="23"/>
-      <c r="Y89" s="23"/>
-      <c r="Z89" s="23"/>
-      <c r="AA89" s="23"/>
-      <c r="AB89" s="23"/>
-      <c r="AC89" s="23"/>
-      <c r="AD89" s="23"/>
-      <c r="AE89" s="23"/>
-      <c r="AF89" s="23"/>
-      <c r="AG89" s="23"/>
+      <c r="S89" s="88"/>
+      <c r="T89" s="88"/>
+      <c r="U89" s="88"/>
+      <c r="V89" s="88"/>
+      <c r="W89" s="88"/>
+      <c r="X89" s="88"/>
+      <c r="Y89" s="88"/>
+      <c r="Z89" s="88"/>
+      <c r="AA89" s="88"/>
+      <c r="AB89" s="88"/>
+      <c r="AC89" s="88"/>
+      <c r="AD89" s="88"/>
+      <c r="AE89" s="88"/>
+      <c r="AF89" s="88"/>
+      <c r="AG89" s="88"/>
       <c r="AH89" s="52" t="s">
         <v>61</v>
       </c>
@@ -9684,10 +9709,10 @@
       <c r="BJ89" s="20"/>
       <c r="BK89" s="20"/>
     </row>
-    <row r="90" spans="1:63" outlineLevel="1">
+    <row r="90" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A90" s="49"/>
       <c r="B90" s="21">
-        <f t="shared" si="1"/>
+        <f ca="1">MAX(B$79:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
       <c r="C90" s="22" t="s">
@@ -9762,7 +9787,7 @@
       <c r="BJ90" s="20"/>
       <c r="BK90" s="20"/>
     </row>
-    <row r="91" spans="1:63">
+    <row r="91" spans="1:63" ht="16.5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9894,7 +9919,7 @@
       <c r="BJ92" s="10"/>
       <c r="BK92" s="10"/>
     </row>
-    <row r="93" spans="1:63">
+    <row r="93" spans="1:63" ht="16.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -9959,7 +9984,7 @@
       <c r="BJ93" s="3"/>
       <c r="BK93" s="3"/>
     </row>
-    <row r="94" spans="1:63">
+    <row r="94" spans="1:63" ht="16.5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -10024,7 +10049,7 @@
       <c r="BJ94" s="3"/>
       <c r="BK94" s="3"/>
     </row>
-    <row r="95" spans="1:63">
+    <row r="95" spans="1:63" ht="16.5">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
@@ -10091,7 +10116,7 @@
       <c r="BJ95" s="2"/>
       <c r="BK95" s="2"/>
     </row>
-    <row r="96" spans="1:63">
+    <row r="96" spans="1:63" ht="16.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -10156,7 +10181,7 @@
       <c r="BJ96" s="3"/>
       <c r="BK96" s="3"/>
     </row>
-    <row r="97" spans="1:63">
+    <row r="97" spans="1:63" ht="16.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -10223,22 +10248,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AD70:AF70"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="AD71:AF71"/>
-    <mergeCell ref="L72:Q72"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AD74:AF74"/>
-    <mergeCell ref="AD72:AF72"/>
-    <mergeCell ref="R72:W72"/>
     <mergeCell ref="AP83:BE83"/>
     <mergeCell ref="AP84:BE84"/>
     <mergeCell ref="S86:AG86"/>
@@ -10250,6 +10259,22 @@
     <mergeCell ref="AP81:BE81"/>
     <mergeCell ref="AP82:BE82"/>
     <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AD74:AF74"/>
+    <mergeCell ref="AD72:AF72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="AD70:AF70"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="AD71:AF71"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10364,7 +10389,7 @@
       <c r="BE1" s="46"/>
       <c r="BF1" s="46"/>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:58" ht="16.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -10424,7 +10449,7 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:58" ht="16.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -10546,7 +10571,7 @@
       <c r="BE4" s="46"/>
       <c r="BF4" s="46"/>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:58" ht="16.5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -10606,7 +10631,7 @@
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:58" ht="16.5">
       <c r="A6" s="4"/>
       <c r="B6" s="56" t="s">
         <v>63</v>
@@ -10668,43 +10693,43 @@
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:58" ht="16.5">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="69"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="67"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
@@ -10730,43 +10755,43 @@
       <c r="BE7" s="4"/>
       <c r="BF7" s="4"/>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:58" ht="16.5">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
@@ -10792,7 +10817,7 @@
       <c r="BE8" s="4"/>
       <c r="BF8" s="4"/>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:58" ht="16.5">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -10852,7 +10877,7 @@
       <c r="BE9" s="4"/>
       <c r="BF9" s="4"/>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:58" ht="16.5">
       <c r="A10" s="4"/>
       <c r="B10" s="56" t="s">
         <v>80</v>
@@ -10914,43 +10939,43 @@
       <c r="BE10" s="4"/>
       <c r="BF10" s="4"/>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:58" ht="16.5">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="64"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="63"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
@@ -10976,45 +11001,45 @@
       <c r="BE11" s="4"/>
       <c r="BF11" s="4"/>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:58" ht="16.5">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="82" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="79" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="80"/>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="81"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="78"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
@@ -11040,41 +11065,41 @@
       <c r="BE12" s="4"/>
       <c r="BF12" s="4"/>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:58" ht="16.5">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="69"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="67"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
@@ -11100,41 +11125,41 @@
       <c r="BE13" s="4"/>
       <c r="BF13" s="4"/>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:58" ht="16.5">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="69"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="67"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -11160,41 +11185,41 @@
       <c r="BE14" s="4"/>
       <c r="BF14" s="4"/>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:58" ht="16.5">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="69"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="67"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
@@ -11220,41 +11245,41 @@
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:58" ht="16.5">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="69"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="67"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -11280,41 +11305,41 @@
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:58" ht="16.5">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="69"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="67"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -11340,41 +11365,41 @@
       <c r="BE17" s="4"/>
       <c r="BF17" s="4"/>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:58" ht="16.5">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="69"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="67"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
@@ -11400,43 +11425,43 @@
       <c r="BE18" s="4"/>
       <c r="BF18" s="4"/>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:58" ht="16.5">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="64"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="63"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
@@ -11462,45 +11487,45 @@
       <c r="BE19" s="4"/>
       <c r="BF19" s="4"/>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:58" ht="16.5">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="82" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="79" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="81"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="78"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
@@ -11526,41 +11551,41 @@
       <c r="BE20" s="4"/>
       <c r="BF20" s="4"/>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:58" ht="16.5">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="69"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="67"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
@@ -11586,41 +11611,41 @@
       <c r="BE21" s="4"/>
       <c r="BF21" s="4"/>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:58" ht="16.5">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="69"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="67"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
@@ -11646,41 +11671,41 @@
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:58" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="69"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="67"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
@@ -11706,41 +11731,41 @@
       <c r="BE23" s="4"/>
       <c r="BF23" s="4"/>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:58" ht="16.5">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="69"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="67"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
@@ -11766,41 +11791,41 @@
       <c r="BE24" s="4"/>
       <c r="BF24" s="4"/>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:58" ht="16.5">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="69"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="67"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
@@ -11826,41 +11851,41 @@
       <c r="BE25" s="4"/>
       <c r="BF25" s="4"/>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:58" ht="16.5">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="69"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="67"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
@@ -11886,43 +11911,43 @@
       <c r="BE26" s="4"/>
       <c r="BF26" s="4"/>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:58" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="64"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="63"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
@@ -11948,45 +11973,45 @@
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:58" ht="16.5">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="82" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="79" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="81"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="78"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
@@ -12012,41 +12037,41 @@
       <c r="BE28" s="4"/>
       <c r="BF28" s="4"/>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:58" ht="16.5">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="69"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="67"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
@@ -12072,41 +12097,41 @@
       <c r="BE29" s="4"/>
       <c r="BF29" s="4"/>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:58" ht="16.5">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="69"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="67"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
@@ -12132,41 +12157,41 @@
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:58" ht="16.5">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="69"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="67"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
@@ -12192,41 +12217,41 @@
       <c r="BE31" s="4"/>
       <c r="BF31" s="4"/>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:58" ht="16.5">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="69"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="67"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
@@ -12252,41 +12277,41 @@
       <c r="BE32" s="4"/>
       <c r="BF32" s="4"/>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:58" ht="16.5">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="69"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="67"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
@@ -12312,41 +12337,41 @@
       <c r="BE33" s="4"/>
       <c r="BF33" s="4"/>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:58" ht="16.5">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="69"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="67"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
@@ -12372,7 +12397,7 @@
       <c r="BE34" s="4"/>
       <c r="BF34" s="4"/>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:58" ht="16.5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
@@ -12432,7 +12457,7 @@
       <c r="BE35" s="4"/>
       <c r="BF35" s="4"/>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" ht="16.5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
@@ -12492,7 +12517,7 @@
       <c r="BE36" s="4"/>
       <c r="BF36" s="4"/>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" ht="16.5">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
@@ -12552,7 +12577,7 @@
       <c r="BE37" s="4"/>
       <c r="BF37" s="4"/>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" ht="16.5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="6"/>
@@ -12612,7 +12637,7 @@
       <c r="BE38" s="4"/>
       <c r="BF38" s="4"/>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" ht="16.5">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
@@ -12672,7 +12697,7 @@
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" ht="16.5">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
@@ -12732,7 +12757,7 @@
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" ht="16.5">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
@@ -12792,7 +12817,7 @@
       <c r="BE41" s="4"/>
       <c r="BF41" s="4"/>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:58" ht="16.5">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6"/>
@@ -12852,7 +12877,7 @@
       <c r="BE42" s="4"/>
       <c r="BF42" s="4"/>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:58" ht="16.5">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
@@ -12974,24 +12999,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:AH12"/>
-    <mergeCell ref="J13:AH13"/>
-    <mergeCell ref="I7:AH7"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="J16:AH16"/>
-    <mergeCell ref="J14:AH14"/>
-    <mergeCell ref="J15:AH15"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="J21:AH21"/>
-    <mergeCell ref="J20:AH20"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J26:AH26"/>
+    <mergeCell ref="J28:AH28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J29:AH29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J32:AH32"/>
+    <mergeCell ref="J34:AH34"/>
+    <mergeCell ref="J33:AH33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
     <mergeCell ref="J31:AH31"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="D17:I17"/>
@@ -13005,21 +13024,27 @@
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J32:AH32"/>
-    <mergeCell ref="J34:AH34"/>
-    <mergeCell ref="J33:AH33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
     <mergeCell ref="J25:AH25"/>
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="J30:AH30"/>
-    <mergeCell ref="J26:AH26"/>
-    <mergeCell ref="J28:AH28"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="J29:AH29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J16:AH16"/>
+    <mergeCell ref="J14:AH14"/>
+    <mergeCell ref="J15:AH15"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J21:AH21"/>
+    <mergeCell ref="J20:AH20"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="J12:AH12"/>
+    <mergeCell ref="J13:AH13"/>
+    <mergeCell ref="I7:AH7"/>
+    <mergeCell ref="I8:AH8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
